--- a/RubricaPlitixDEFINITIVO.xlsx
+++ b/RubricaPlitixDEFINITIVO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Msi\OneDrive\Escritorio\carreraonedrive\4.DOBLE\2CUATRI\INFORMATICA\ABD\TRABAJO-GRUPO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javier/Documents/SQLExperts/SQLExperts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F10B3A8-D8E6-41B3-A27A-C5B97D140547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9953B0E-AC47-EF43-9374-6CEA307DD617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="107">
   <si>
     <t>Nombre del Grupo:</t>
   </si>
@@ -438,9 +438,6 @@
     <t>F_OBTENER_PLAN_CUENTA</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>F_CONTAR_PRODUCTOS_CUENTA</t>
   </si>
   <si>
@@ -610,13 +607,31 @@
   </si>
   <si>
     <t>Columna1</t>
+  </si>
+  <si>
+    <t>SI/NO estamos probando todavía</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SI (PL/SQL1)</t>
+  </si>
+  <si>
+    <t>USANDO COMMITS Y ROLLBACK</t>
+  </si>
+  <si>
+    <t>SI (PL/SQL2)</t>
+  </si>
+  <si>
+    <t>SI (PL/SQL2) AL FINAL</t>
+  </si>
+  <si>
+    <t>SI; SE HA HECHO UN PERFIL especficico para cudno se crean usuario (FINAL NIVEL FISICO 2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1194,19 +1209,19 @@
   <dimension ref="A1:U61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="51.140625" customWidth="1"/>
-    <col min="3" max="3" width="46.140625" customWidth="1"/>
-    <col min="5" max="5" width="47.7109375" style="5" customWidth="1"/>
-    <col min="6" max="8" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="51.1640625" customWidth="1"/>
+    <col min="3" max="3" width="46.1640625" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" style="5" customWidth="1"/>
+    <col min="6" max="8" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="23.45">
+    <row r="1" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -1216,7 +1231,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:21" ht="15.6">
+    <row r="2" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -1226,7 +1241,7 @@
       <c r="E2" s="15"/>
       <c r="F2" s="14"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1236,7 +1251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="28.9">
+    <row r="4" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1267,14 +1282,14 @@
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
     </row>
-    <row r="5" spans="1:21" ht="15.6">
+    <row r="5" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:21" ht="43.15">
+    <row r="6" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="19">
         <v>1</v>
       </c>
@@ -1295,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="43.15">
+    <row r="7" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
         <v>12</v>
@@ -1311,7 +1326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="57.6">
+    <row r="8" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
         <v>14</v>
@@ -1327,7 +1342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="28.9">
+    <row r="9" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
         <v>16</v>
@@ -1343,7 +1358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="28.9">
+    <row r="10" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
         <f>A6+1</f>
         <v>2</v>
@@ -1365,7 +1380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
         <v>21</v>
@@ -1381,7 +1396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.6">
+    <row r="12" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <f>A10+1</f>
         <v>3</v>
@@ -1403,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
         <v>26</v>
@@ -1419,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="43.15">
+    <row r="14" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <v>4</v>
       </c>
@@ -1440,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="28.9">
+    <row r="15" spans="1:21" ht="34" x14ac:dyDescent="0.25">
       <c r="C15" s="21" t="s">
         <v>31</v>
       </c>
@@ -1455,7 +1470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="43.15">
+    <row r="16" spans="1:21" ht="51" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="21" t="s">
         <v>33</v>
@@ -1471,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.9">
+    <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="21" t="s">
         <v>35</v>
@@ -1487,7 +1502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="27.6">
+    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="21" t="s">
         <v>37</v>
@@ -1503,7 +1518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6">
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="19">
         <v>5</v>
       </c>
@@ -1524,7 +1539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75">
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
         <f>A19+1</f>
         <v>6</v>
@@ -1539,96 +1554,96 @@
         <v>10</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15">
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
       <c r="C21" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15">
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="23"/>
       <c r="C22" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15">
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" s="23"/>
       <c r="C23" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15">
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" s="23"/>
       <c r="C24" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="25.9" customHeight="1">
+    <row r="25" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="23"/>
       <c r="C25" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="F25">
         <f>IF(D25="SI",1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C26" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>10</v>
@@ -1638,46 +1653,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="25.9" customHeight="1">
+    <row r="27" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="23"/>
       <c r="C27" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="F27">
         <f>IF(D27="SI",1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="25.9" customHeight="1">
+    <row r="28" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="23"/>
       <c r="C28" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>102</v>
+      </c>
       <c r="F28">
         <f>IF(D28="SI",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="19">
         <f>A20+1</f>
         <v>7</v>
       </c>
       <c r="B29" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="22" t="s">
         <v>54</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>55</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>10</v>
@@ -1690,67 +1707,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30.75">
+    <row r="30" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="19">
         <f>A29+1</f>
         <v>8</v>
       </c>
       <c r="B30" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="D30" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="28.9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="19">
         <f>A30+1</f>
         <v>9</v>
       </c>
       <c r="B31" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>60</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75">
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="19">
         <f>A31+1</f>
         <v>10</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="12"/>
+        <v>52</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>101</v>
+      </c>
       <c r="F32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="28.9">
+    <row r="33" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="19">
         <f>A32+1</f>
         <v>11</v>
@@ -1759,110 +1780,112 @@
         <v>18</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="F33">
         <f t="shared" ref="F33:F38" si="1">IF(D33="SI",1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="28.9">
+    <row r="34" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="28.9">
+    <row r="35" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="30" t="s">
         <v>66</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>67</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="30" t="s">
         <v>68</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>69</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="B37" s="5"/>
       <c r="C37" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="F37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" s="5"/>
       <c r="C38" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>72</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="9"/>
       <c r="F39" s="11">
         <f>SUM(F6:F38)/COUNT(F6:F38)*2</f>
-        <v>1.7575757575757576</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="23.45">
+        <v>1.9393939393939394</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="24" x14ac:dyDescent="0.3">
       <c r="B40" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -1882,217 +1905,231 @@
       <c r="S40" s="10"/>
       <c r="T40" s="10"/>
     </row>
-    <row r="41" spans="1:20" ht="23.45">
+    <row r="41" spans="1:20" ht="24" x14ac:dyDescent="0.3">
       <c r="B41" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="9"/>
     </row>
-    <row r="42" spans="1:20" ht="23.45">
+    <row r="42" spans="1:20" ht="24" x14ac:dyDescent="0.3">
       <c r="B42" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="9"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B44" s="5"/>
       <c r="E44" s="9"/>
     </row>
-    <row r="45" spans="1:20" ht="15.6">
+    <row r="45" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="19">
         <v>1</v>
       </c>
       <c r="B45" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="D45" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>104</v>
+      </c>
       <c r="F45">
         <f>IF(D45="SI",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" ht="15.6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="17"/>
       <c r="B46" s="26"/>
       <c r="C46" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E46" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>104</v>
+      </c>
       <c r="F46">
         <f t="shared" ref="F46:F49" si="2">IF(D46="SI",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="15.6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="17"/>
       <c r="B47" s="26"/>
       <c r="C47" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>104</v>
+      </c>
       <c r="F47">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" ht="15.6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="17"/>
       <c r="B48" s="26"/>
       <c r="C48" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E48" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>104</v>
+      </c>
       <c r="F48">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" ht="15.6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="17"/>
       <c r="B49" s="26"/>
       <c r="C49" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E49" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>104</v>
+      </c>
       <c r="F49">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" ht="15.6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="19">
         <v>2</v>
       </c>
       <c r="B50" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="D50" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E50" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>105</v>
+      </c>
       <c r="F50">
         <f t="shared" ref="F50:F58" si="3">IF(D50="SI",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" ht="15.6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="26"/>
       <c r="B51" s="26"/>
       <c r="C51" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E51" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>105</v>
+      </c>
       <c r="F51">
         <f t="shared" ref="F51" si="4">IF(D51="SI",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" ht="43.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" s="19">
         <v>3</v>
       </c>
       <c r="B52" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="D52" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>87</v>
       </c>
       <c r="F52">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="43.15">
+    <row r="53" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="B53" s="5"/>
       <c r="C53" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="12" t="s">
         <v>88</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>89</v>
       </c>
       <c r="F53">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="28.9">
+    <row r="54" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="19">
         <f>A52+1</f>
         <v>4</v>
       </c>
       <c r="B54" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="D54" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>92</v>
       </c>
       <c r="F54">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="28.9">
+    <row r="55" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="19">
         <f>A54+1</f>
         <v>5</v>
       </c>
       <c r="B55" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="D55" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55">
@@ -2100,13 +2137,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="28.9">
+    <row r="56" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="B56" s="5"/>
       <c r="C56" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56">
@@ -2114,13 +2151,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="43.15">
+    <row r="57" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="B57" s="5"/>
       <c r="C57" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57">
@@ -2128,44 +2165,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="28.9">
+    <row r="58" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="19">
         <v>7</v>
       </c>
       <c r="B58" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="D58" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F58">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="15.6">
+    <row r="59" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C59" s="5"/>
       <c r="F59" s="10">
         <f>SUM(F45:F58)/COUNT(F45:F58)*2</f>
-        <v>0.42857142857142855</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" ht="15.6">
+        <v>1.4285714285714286</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C60" s="5"/>
       <c r="F60" s="10">
         <f>F59+F39</f>
-        <v>2.1861471861471862</v>
+        <v>3.3679653679653683</v>
       </c>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
@@ -2183,7 +2220,7 @@
       <c r="T60" s="10"/>
       <c r="U60" s="10"/>
     </row>
-    <row r="61" spans="1:21">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2233,24 +2270,24 @@
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/RubricaPlitixDEFINITIVO.xlsx
+++ b/RubricaPlitixDEFINITIVO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javier/Documents/SQLExperts/SQLExperts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9953B0E-AC47-EF43-9374-6CEA307DD617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3E4E40-6AE0-C244-881C-446A938C4B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="109">
   <si>
     <t>Nombre del Grupo:</t>
   </si>
@@ -625,6 +625,12 @@
   </si>
   <si>
     <t>SI; SE HA HECHO UN PERFIL especficico para cudno se crean usuario (FINAL NIVEL FISICO 2)</t>
+  </si>
+  <si>
+    <t>FUNCIONES AUXILIARES: VERIFICAR USUARIO</t>
+  </si>
+  <si>
+    <t>SI, HEMOS INTRODUCIDO TODOS LOS DATOS NECESARIOS</t>
   </si>
 </sst>
 </file>
@@ -1208,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C334588-D4EB-43EC-8424-5ED08F8B2503}">
   <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="B27" zoomScale="177" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1761,14 +1767,14 @@
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="13" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>101</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="32" x14ac:dyDescent="0.2">
@@ -1880,7 +1886,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="11">
         <f>SUM(F6:F38)/COUNT(F6:F38)*2</f>
-        <v>1.9393939393939394</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="24" x14ac:dyDescent="0.3">
@@ -2129,12 +2135,14 @@
         <v>93</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E55" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>108</v>
+      </c>
       <c r="F55">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="32" x14ac:dyDescent="0.2">
@@ -2157,12 +2165,14 @@
         <v>95</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E57" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>107</v>
+      </c>
       <c r="F57">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="32" x14ac:dyDescent="0.2">
@@ -2191,7 +2201,7 @@
       <c r="C59" s="5"/>
       <c r="F59" s="10">
         <f>SUM(F45:F58)/COUNT(F45:F58)*2</f>
-        <v>1.4285714285714286</v>
+        <v>1.7142857142857142</v>
       </c>
     </row>
     <row r="60" spans="1:21" ht="17" x14ac:dyDescent="0.2">
@@ -2202,7 +2212,7 @@
       <c r="C60" s="5"/>
       <c r="F60" s="10">
         <f>F59+F39</f>
-        <v>3.3679653679653683</v>
+        <v>3.7142857142857144</v>
       </c>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>

--- a/RubricaPlitixDEFINITIVO.xlsx
+++ b/RubricaPlitixDEFINITIVO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javier/Documents/SQLExperts/SQLExperts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Msi\OneDrive\Escritorio\carreraonedrive\4.DOBLE\2CUATRI\INFORMATICA\INTERNET\WebFusion\SQLExperts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3E4E40-6AE0-C244-881C-446A938C4B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09D5038-BF3C-4032-BF03-32C27E8FADB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23985" yWindow="-16200" windowWidth="9540" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="3" r:id="rId1"/>
@@ -75,21 +75,12 @@
     <t>SI</t>
   </si>
   <si>
-    <t>si, en la  en  la parte de nivel fisico 1. Se ha creado el usuario Plytix y asignado a los tablespaces TS_PLYTIX y TS_INDICES.</t>
-  </si>
-  <si>
     <t>Se han creado índices en la base de datos? De qué tipo? Porqué? Cuales?</t>
   </si>
   <si>
-    <t>Se han creado indices : de tipo funcional (ix_upper_nombre, ix_nombreusuario) y  bitmap(ix_cuentaid_bitmap)</t>
-  </si>
-  <si>
     <t>¿Se han importado los datos a la tablas Cuentas, Planes, Usuarios, Productos tal y como se especificaba en la práctica de nivel físico? ¿Se ha creado la tabla externa?</t>
   </si>
   <si>
-    <t>Si, se han importado.. Además, se ha creado la tabla externa productos_ext y se han importado los datos a PRODUCTO desde el sinónimo S_PRODUCTOS</t>
-  </si>
-  <si>
     <t>¿Se ha creado la tabla TRAZA y se usa para seguir errores?</t>
   </si>
   <si>
@@ -100,9 +91,6 @@
   </si>
   <si>
     <t>¿Se ha cifrado alguna columna como se indicaba en la práctica de seguridad?</t>
-  </si>
-  <si>
-    <t>Si, hemos encriptado la columna telefono de la tabla Usuario.</t>
   </si>
   <si>
     <t>¿Se ha aplicado alguna política de autorización VPD?</t>
@@ -570,9 +558,6 @@
     <t>Se han creado Restricciones NOT NULL / UNIQUE</t>
   </si>
   <si>
-    <t>Si, la columna nif de cuenta es unica (hemos hecho un alter table) y hay muchas columnas que tienen not null en las tablas de nuestro modelo</t>
-  </si>
-  <si>
     <t>Auditoria</t>
   </si>
   <si>
@@ -631,6 +616,21 @@
   </si>
   <si>
     <t>SI, HEMOS INTRODUCIDO TODOS LOS DATOS NECESARIOS</t>
+  </si>
+  <si>
+    <t>si, en la  en  la parte de nivel fisico 1. Se han creado  los tablespaces TS_PLYTIX y TS_INDICES.</t>
+  </si>
+  <si>
+    <t>Si, la columna nif de cuenta es unica (hemos hecho un alter table) y hay muchas columnas que tienen la restricción not null en las tablas de nuestro modelo</t>
+  </si>
+  <si>
+    <t>Si, se han importado. Además, se ha creado la tabla externa productos_ext y se han importado los datos a PRODUCTO desde el sinónimo S_PRODUCTOS</t>
+  </si>
+  <si>
+    <t>Se han creado indices : de tipo funcional (ix_upper_nombre, ix_nombreusuario) y  bitmap(ix_cuentaid_bitmap). Se han creado para acelerar busquedas frecuentes.</t>
+  </si>
+  <si>
+    <t>Si, hemos encriptado la columna telefono y el correo electronico  de la tabla Usuario.</t>
   </si>
 </sst>
 </file>
@@ -906,24 +906,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1214,20 +1214,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C334588-D4EB-43EC-8424-5ED08F8B2503}">
   <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" zoomScale="177" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="73" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="51.1640625" customWidth="1"/>
-    <col min="3" max="3" width="46.1640625" customWidth="1"/>
+    <col min="2" max="2" width="51.109375" customWidth="1"/>
+    <col min="3" max="3" width="46.109375" customWidth="1"/>
     <col min="5" max="5" width="47.6640625" style="5" customWidth="1"/>
-    <col min="6" max="8" width="11.5" customWidth="1"/>
+    <col min="6" max="8" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="7"/>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -1237,7 +1237,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -1247,7 +1247,7 @@
       <c r="E2" s="15"/>
       <c r="F2" s="14"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1257,7 +1257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1288,14 +1288,14 @@
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
     </row>
-    <row r="5" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <v>1</v>
       </c>
@@ -1309,347 +1309,347 @@
         <v>10</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F32" si="0">IF(D6="SI",1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F9">
         <f>IF(D9="SI",1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <f>A6+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <f>A10+1</f>
         <v>3</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>4</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C15" s="21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="C16" s="21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
       <c r="C17" s="21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
       <c r="C18" s="21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>5</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
         <f>A19+1</f>
         <v>6</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="C21" s="22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" s="23"/>
       <c r="C22" s="22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" s="23"/>
       <c r="C23" s="22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" s="23"/>
       <c r="C24" s="24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="23"/>
       <c r="C25" s="22" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F25">
         <f>IF(D25="SI",1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" s="22" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>10</v>
@@ -1659,227 +1659,227 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23"/>
       <c r="C27" s="22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F27">
         <f>IF(D27="SI",1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23"/>
       <c r="C28" s="22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F28">
         <f>IF(D28="SI",1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="19">
         <f>A20+1</f>
         <v>7</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="19">
         <f>A29+1</f>
         <v>8</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="19">
         <f>A30+1</f>
         <v>9</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="19">
         <f>A31+1</f>
         <v>10</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <f>A32+1</f>
         <v>11</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F33">
         <f t="shared" ref="F33:F38" si="1">IF(D33="SI",1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B37" s="5"/>
       <c r="C37" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B38" s="5"/>
       <c r="C38" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -1889,9 +1889,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B40" s="25" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -1911,247 +1911,247 @@
       <c r="S40" s="10"/>
       <c r="T40" s="10"/>
     </row>
-    <row r="41" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B41" s="25" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="9"/>
     </row>
-    <row r="42" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B42" s="25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="9"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B44" s="5"/>
       <c r="E44" s="9"/>
     </row>
-    <row r="45" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="19">
         <v>1</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F45">
         <f>IF(D45="SI",1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="26"/>
       <c r="C46" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F46">
         <f t="shared" ref="F46:F49" si="2">IF(D46="SI",1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
       <c r="B47" s="26"/>
       <c r="C47" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F47">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
       <c r="B48" s="26"/>
       <c r="C48" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
       <c r="B49" s="26"/>
       <c r="C49" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F49">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="19">
         <v>2</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F50">
         <f t="shared" ref="F50:F58" si="3">IF(D50="SI",1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="26"/>
       <c r="B51" s="26"/>
       <c r="C51" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D51" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F51">
         <f t="shared" ref="F51" si="4">IF(D51="SI",1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="48" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="19">
         <v>3</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F52">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="48" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B53" s="5"/>
       <c r="C53" s="28" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D53" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="F53">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="19">
         <f>A52+1</f>
         <v>4</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D54" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F54">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="19">
         <f>A54+1</f>
         <v>5</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D55" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F55">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B56" s="5"/>
       <c r="C56" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56">
@@ -2159,44 +2159,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="48" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B57" s="5"/>
       <c r="C57" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D57" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F57">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="19">
         <v>7</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F58">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="29" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C59" s="5"/>
       <c r="F59" s="10">
@@ -2204,10 +2204,10 @@
         <v>1.7142857142857142</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="29" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C60" s="5"/>
       <c r="F60" s="10">
@@ -2230,7 +2230,7 @@
       <c r="T60" s="10"/>
       <c r="U60" s="10"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2280,24 +2280,24 @@
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/RubricaPlitixDEFINITIVO.xlsx
+++ b/RubricaPlitixDEFINITIVO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Msi\OneDrive\Escritorio\carreraonedrive\4.DOBLE\2CUATRI\INFORMATICA\INTERNET\WebFusion\SQLExperts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09D5038-BF3C-4032-BF03-32C27E8FADB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36E1519-3394-4B2C-BBEA-3AE2A336263B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23985" yWindow="-16200" windowWidth="9540" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4995" yWindow="-16320" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="3" r:id="rId1"/>
@@ -612,9 +612,6 @@
     <t>SI; SE HA HECHO UN PERFIL especficico para cudno se crean usuario (FINAL NIVEL FISICO 2)</t>
   </si>
   <si>
-    <t>FUNCIONES AUXILIARES: VERIFICAR USUARIO</t>
-  </si>
-  <si>
     <t>SI, HEMOS INTRODUCIDO TODOS LOS DATOS NECESARIOS</t>
   </si>
   <si>
@@ -631,6 +628,9 @@
   </si>
   <si>
     <t>Si, hemos encriptado la columna telefono y el correo electronico  de la tabla Usuario.</t>
+  </si>
+  <si>
+    <t>FUNCIONES AUXILIARES: VERIFICAR USUARIO-Trigger:TR_ATRIBUTOS</t>
   </si>
 </sst>
 </file>
@@ -1214,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C334588-D4EB-43EC-8424-5ED08F8B2503}">
   <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="73" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B33" zoomScale="73" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1309,7 +1309,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F32" si="0">IF(D6="SI",1,0)</f>
@@ -1325,7 +1325,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -1341,7 +1341,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -1379,7 +1379,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -2094,7 +2094,7 @@
         <v>10</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F53">
         <f t="shared" si="3"/>
@@ -2138,7 +2138,7 @@
         <v>10</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F55">
         <f t="shared" si="3"/>
@@ -2168,7 +2168,7 @@
         <v>10</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F57">
         <f t="shared" si="3"/>

--- a/RubricaPlitixDEFINITIVO.xlsx
+++ b/RubricaPlitixDEFINITIVO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Msi\OneDrive\Escritorio\carreraonedrive\4.DOBLE\2CUATRI\INFORMATICA\INTERNET\WebFusion\SQLExperts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36E1519-3394-4B2C-BBEA-3AE2A336263B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FAAD28-8EF9-4655-8DE7-A9F811F18EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4995" yWindow="-16320" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,9 +492,6 @@
     <t>Se han asignado los permisos de forma restrictiva a todos los usuarios. Ejemplos:</t>
   </si>
   <si>
-    <t>Si, hemos definido triggers, vistas, permisos especificos por rol y una politica VPD</t>
-  </si>
-  <si>
     <t>Operaciones a realizar por los usuarios</t>
   </si>
   <si>
@@ -594,15 +591,9 @@
     <t>Columna1</t>
   </si>
   <si>
-    <t>SI/NO estamos probando todavía</t>
-  </si>
-  <si>
     <t xml:space="preserve"> SI (PL/SQL1)</t>
   </si>
   <si>
-    <t>USANDO COMMITS Y ROLLBACK</t>
-  </si>
-  <si>
     <t>SI (PL/SQL2)</t>
   </si>
   <si>
@@ -631,6 +622,15 @@
   </si>
   <si>
     <t>FUNCIONES AUXILIARES: VERIFICAR USUARIO-Trigger:TR_ATRIBUTOS</t>
+  </si>
+  <si>
+    <t>USANDO COMMITS Y ROLLBACK(P_migrar_productos_a_categoría)</t>
+  </si>
+  <si>
+    <t>SI estamos probando todavía</t>
+  </si>
+  <si>
+    <t>Si, hemos definido triggers, vistas, permisos especificos por rol y una politica VPD. Ejemplos:--Aseguramos que la relación Activo-Categoríaactivos sea entre ambos elementos  de la misma cuenta, comprobar que la cuenta del producto y la categoria es la misma al insertar o update, usuario_estándar no puede insertar atributos en cuentas ajenas</t>
   </si>
 </sst>
 </file>
@@ -1214,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C334588-D4EB-43EC-8424-5ED08F8B2503}">
   <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B33" zoomScale="73" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="73" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1309,7 +1309,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F32" si="0">IF(D6="SI",1,0)</f>
@@ -1325,7 +1325,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -1341,7 +1341,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -1379,7 +1379,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -1560,7 +1560,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
@@ -1576,7 +1576,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
@@ -1592,7 +1592,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
@@ -1608,7 +1608,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
@@ -1624,7 +1624,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
@@ -1640,7 +1640,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F25">
         <f>IF(D25="SI",1,0)</f>
@@ -1668,7 +1668,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F27">
         <f>IF(D27="SI",1,0)</f>
@@ -1684,7 +1684,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F28">
         <f>IF(D28="SI",1,0)</f>
@@ -1728,7 +1728,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
@@ -1770,7 +1770,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
@@ -1815,7 +1815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
         <v>61</v>
@@ -1824,7 +1824,7 @@
         <v>10</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
@@ -1834,13 +1834,13 @@
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="30" t="s">
         <v>63</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>64</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
@@ -1850,13 +1850,13 @@
     <row r="37" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B37" s="5"/>
       <c r="C37" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
@@ -1866,13 +1866,13 @@
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B38" s="5"/>
       <c r="C38" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="40" spans="1:20" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B40" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="41" spans="1:20" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B41" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="42" spans="1:20" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B42" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -1942,16 +1942,16 @@
         <v>1</v>
       </c>
       <c r="B45" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="D45" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F45">
         <f>IF(D45="SI",1,0)</f>
@@ -1962,13 +1962,13 @@
       <c r="A46" s="17"/>
       <c r="B46" s="26"/>
       <c r="C46" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F46">
         <f t="shared" ref="F46:F49" si="2">IF(D46="SI",1,0)</f>
@@ -1979,13 +1979,13 @@
       <c r="A47" s="17"/>
       <c r="B47" s="26"/>
       <c r="C47" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F47">
         <f t="shared" si="2"/>
@@ -1996,13 +1996,13 @@
       <c r="A48" s="17"/>
       <c r="B48" s="26"/>
       <c r="C48" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F48">
         <f t="shared" si="2"/>
@@ -2013,13 +2013,13 @@
       <c r="A49" s="17"/>
       <c r="B49" s="26"/>
       <c r="C49" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F49">
         <f t="shared" si="2"/>
@@ -2031,16 +2031,16 @@
         <v>2</v>
       </c>
       <c r="B50" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="D50" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F50">
         <f t="shared" ref="F50:F58" si="3">IF(D50="SI",1,0)</f>
@@ -2051,13 +2051,13 @@
       <c r="A51" s="26"/>
       <c r="B51" s="26"/>
       <c r="C51" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D51" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F51">
         <f t="shared" ref="F51" si="4">IF(D51="SI",1,0)</f>
@@ -2069,16 +2069,16 @@
         <v>3</v>
       </c>
       <c r="B52" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="D52" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="F52">
         <f t="shared" si="3"/>
@@ -2088,13 +2088,13 @@
     <row r="53" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B53" s="5"/>
       <c r="C53" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D53" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F53">
         <f t="shared" si="3"/>
@@ -2107,16 +2107,16 @@
         <v>4</v>
       </c>
       <c r="B54" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="D54" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="F54">
         <f t="shared" si="3"/>
@@ -2129,16 +2129,16 @@
         <v>5</v>
       </c>
       <c r="B55" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="D55" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F55">
         <f t="shared" si="3"/>
@@ -2148,7 +2148,7 @@
     <row r="56" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B56" s="5"/>
       <c r="C56" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>48</v>
@@ -2162,13 +2162,13 @@
     <row r="57" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B57" s="5"/>
       <c r="C57" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D57" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F57">
         <f t="shared" si="3"/>
@@ -2180,10 +2180,10 @@
         <v>7</v>
       </c>
       <c r="B58" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>48</v>
@@ -2196,7 +2196,7 @@
     <row r="59" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C59" s="5"/>
       <c r="F59" s="10">
@@ -2207,7 +2207,7 @@
     <row r="60" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C60" s="5"/>
       <c r="F60" s="10">
@@ -2287,7 +2287,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">

--- a/RubricaPlitixDEFINITIVO.xlsx
+++ b/RubricaPlitixDEFINITIVO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Msi\OneDrive\Escritorio\carreraonedrive\4.DOBLE\2CUATRI\INFORMATICA\INTERNET\WebFusion\SQLExperts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FAAD28-8EF9-4655-8DE7-A9F811F18EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4EEFBE-4F4B-4DDA-A6FA-DEBCA4E4E5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4995" yWindow="-16320" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -504,9 +504,6 @@
     <t>Se ha activado TDE y encriptado algunas columnas</t>
   </si>
   <si>
-    <t>Si, a la columna Telefono de Usuario</t>
-  </si>
-  <si>
     <t>Si has contestado NO a alguna de las pregunas anteriores, el trabajo se considera no superado</t>
   </si>
   <si>
@@ -600,18 +597,12 @@
     <t>SI (PL/SQL2) AL FINAL</t>
   </si>
   <si>
-    <t>SI; SE HA HECHO UN PERFIL especficico para cudno se crean usuario (FINAL NIVEL FISICO 2)</t>
-  </si>
-  <si>
     <t>SI, HEMOS INTRODUCIDO TODOS LOS DATOS NECESARIOS</t>
   </si>
   <si>
     <t>si, en la  en  la parte de nivel fisico 1. Se han creado  los tablespaces TS_PLYTIX y TS_INDICES.</t>
   </si>
   <si>
-    <t>Si, la columna nif de cuenta es unica (hemos hecho un alter table) y hay muchas columnas que tienen la restricción not null en las tablas de nuestro modelo</t>
-  </si>
-  <si>
     <t>Si, se han importado. Además, se ha creado la tabla externa productos_ext y se han importado los datos a PRODUCTO desde el sinónimo S_PRODUCTOS</t>
   </si>
   <si>
@@ -630,7 +621,16 @@
     <t>SI estamos probando todavía</t>
   </si>
   <si>
-    <t>Si, hemos definido triggers, vistas, permisos especificos por rol y una politica VPD. Ejemplos:--Aseguramos que la relación Activo-Categoríaactivos sea entre ambos elementos  de la misma cuenta, comprobar que la cuenta del producto y la categoria es la misma al insertar o update, usuario_estándar no puede insertar atributos en cuentas ajenas</t>
+    <t>SI; SE HA HECHO UN PERFIL especficico para cuando se crean usuario (FINAL NIVEL FISICO 2)</t>
+  </si>
+  <si>
+    <t>Si, hemos definido triggers, vistas, permisos especificos por rol y una politica VPD. Ejemplos:--Aseguramos que la relación Activo-Categoríaactivos sea entre ambos elementos  de la misma cuenta, comprobar que la cuenta del producto y la categoria es la misma al insertar, usuario_estándar no puede insertar atributos en cuentas ajenas</t>
+  </si>
+  <si>
+    <t>Si, la columna nif de cuenta es unica (hemos hecho un alter table debajo de los create table) y hay muchas columnas que tienen la restricción not null en las tablas de nuestro modelo</t>
+  </si>
+  <si>
+    <t>Si, a la columna Telefono de Usuario y Correoelectronico</t>
   </si>
 </sst>
 </file>
@@ -1214,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C334588-D4EB-43EC-8424-5ED08F8B2503}">
   <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="73" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="73" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1309,7 +1309,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F32" si="0">IF(D6="SI",1,0)</f>
@@ -1325,7 +1325,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -1341,7 +1341,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -1379,7 +1379,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -1560,7 +1560,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
@@ -1576,7 +1576,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
@@ -1592,7 +1592,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
@@ -1608,7 +1608,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
@@ -1624,7 +1624,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
@@ -1640,7 +1640,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F25">
         <f>IF(D25="SI",1,0)</f>
@@ -1668,7 +1668,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F27">
         <f>IF(D27="SI",1,0)</f>
@@ -1684,7 +1684,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F28">
         <f>IF(D28="SI",1,0)</f>
@@ -1728,7 +1728,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
@@ -1770,7 +1770,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
@@ -1824,7 +1824,7 @@
         <v>10</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
@@ -1856,7 +1856,7 @@
         <v>10</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
@@ -1872,7 +1872,7 @@
         <v>10</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="40" spans="1:20" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B40" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="41" spans="1:20" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B41" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="42" spans="1:20" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B42" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -1942,16 +1942,16 @@
         <v>1</v>
       </c>
       <c r="B45" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="D45" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F45">
         <f>IF(D45="SI",1,0)</f>
@@ -1962,13 +1962,13 @@
       <c r="A46" s="17"/>
       <c r="B46" s="26"/>
       <c r="C46" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F46">
         <f t="shared" ref="F46:F49" si="2">IF(D46="SI",1,0)</f>
@@ -1979,13 +1979,13 @@
       <c r="A47" s="17"/>
       <c r="B47" s="26"/>
       <c r="C47" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F47">
         <f t="shared" si="2"/>
@@ -1996,13 +1996,13 @@
       <c r="A48" s="17"/>
       <c r="B48" s="26"/>
       <c r="C48" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F48">
         <f t="shared" si="2"/>
@@ -2013,13 +2013,13 @@
       <c r="A49" s="17"/>
       <c r="B49" s="26"/>
       <c r="C49" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F49">
         <f t="shared" si="2"/>
@@ -2031,16 +2031,16 @@
         <v>2</v>
       </c>
       <c r="B50" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="D50" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F50">
         <f t="shared" ref="F50:F58" si="3">IF(D50="SI",1,0)</f>
@@ -2051,13 +2051,13 @@
       <c r="A51" s="26"/>
       <c r="B51" s="26"/>
       <c r="C51" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D51" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F51">
         <f t="shared" ref="F51" si="4">IF(D51="SI",1,0)</f>
@@ -2069,32 +2069,32 @@
         <v>3</v>
       </c>
       <c r="B52" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="D52" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>81</v>
       </c>
       <c r="F52">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B53" s="5"/>
       <c r="C53" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D53" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F53">
         <f t="shared" si="3"/>
@@ -2107,16 +2107,16 @@
         <v>4</v>
       </c>
       <c r="B54" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="D54" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="12" t="s">
         <v>84</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>85</v>
       </c>
       <c r="F54">
         <f t="shared" si="3"/>
@@ -2129,16 +2129,16 @@
         <v>5</v>
       </c>
       <c r="B55" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="D55" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F55">
         <f t="shared" si="3"/>
@@ -2148,7 +2148,7 @@
     <row r="56" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B56" s="5"/>
       <c r="C56" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>48</v>
@@ -2162,13 +2162,13 @@
     <row r="57" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B57" s="5"/>
       <c r="C57" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D57" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F57">
         <f t="shared" si="3"/>
@@ -2180,10 +2180,10 @@
         <v>7</v>
       </c>
       <c r="B58" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>48</v>
@@ -2196,7 +2196,7 @@
     <row r="59" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="5"/>
       <c r="F59" s="10">
@@ -2207,7 +2207,7 @@
     <row r="60" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C60" s="5"/>
       <c r="F60" s="10">
@@ -2287,7 +2287,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">

--- a/RubricaPlitixDEFINITIVO.xlsx
+++ b/RubricaPlitixDEFINITIVO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Msi\OneDrive\Escritorio\carreraonedrive\4.DOBLE\2CUATRI\INFORMATICA\INTERNET\WebFusion\SQLExperts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4EEFBE-4F4B-4DDA-A6FA-DEBCA4E4E5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A52AAD0-7DF6-4187-92CF-30676FE2ADD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4995" yWindow="-16320" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4875" yWindow="-16200" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="3" r:id="rId1"/>
@@ -1214,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C334588-D4EB-43EC-8424-5ED08F8B2503}">
   <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="73" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="73" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
